--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -715,10 +715,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="E8" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3">
         <v>3500</v>
@@ -773,10 +773,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="E10" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -941,10 +941,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E17" s="3">
-        <v>17700</v>
+        <v>17800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
         <v>-4600</v>
@@ -1102,7 +1102,7 @@
         <v>-6100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1186,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E26" s="3">
         <v>-2100</v>
@@ -1215,10 +1215,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1389,10 +1389,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1447,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1536,10 +1536,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>40800</v>
+        <v>41100</v>
       </c>
       <c r="E41" s="3">
-        <v>51300</v>
+        <v>51700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1594,7 +1594,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="E43" s="3">
         <v>7500</v>
@@ -1652,7 +1652,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
@@ -1681,10 +1681,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63100</v>
+        <v>63600</v>
       </c>
       <c r="E46" s="3">
-        <v>60900</v>
+        <v>61300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1742,7 +1742,7 @@
         <v>6500</v>
       </c>
       <c r="E48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1913,10 +1913,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73300</v>
+        <v>73800</v>
       </c>
       <c r="E54" s="3">
-        <v>67500</v>
+        <v>68000</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1968,7 +1968,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
         <v>4900</v>
@@ -2026,7 +2026,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="E59" s="3">
         <v>5100</v>
@@ -2055,7 +2055,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="E60" s="3">
         <v>10000</v>
@@ -2229,10 +2229,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23100</v>
+        <v>23300</v>
       </c>
       <c r="E66" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2387,10 +2387,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15000</v>
+        <v>15100</v>
       </c>
       <c r="E72" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2503,10 +2503,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50100</v>
+        <v>50500</v>
       </c>
       <c r="E76" s="3">
-        <v>55300</v>
+        <v>55700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2595,10 +2595,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2943,7 +2943,7 @@
         <v>-1300</v>
       </c>
       <c r="E94" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>-1300</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
   <si>
     <t>PUYI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,19 +710,22 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>17000</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
-        <v>13200</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>15900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>12300</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -738,19 +742,22 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>3500</v>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3300</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -767,19 +774,22 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>13500</v>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>12600</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,19 +961,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>23900</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16600</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -964,19 +991,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-6900</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-4300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,19 +1039,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>800</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1064,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1093,19 +1133,22 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-6100</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-5700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-2500</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1122,20 +1165,23 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,19 +1229,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-5200</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-4800</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1209,19 +1261,22 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-5200</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-4800</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,19 +1421,22 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-800</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1383,19 +1453,22 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-5200</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-4800</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,19 +1517,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-5200</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-4800</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1470,25 +1549,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,19 +1616,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>41100</v>
+        <v>31900</v>
       </c>
       <c r="E41" s="3">
-        <v>51700</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>38400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>48300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1559,13 +1646,16 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1573,34 +1663,37 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="E43" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>10400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>7000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,19 +1742,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>14600</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1675,19 +1774,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>63600</v>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>61300</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>59400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>57300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1704,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,19 +1838,22 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6500</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>4100</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1762,20 +1870,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
-        <v>300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,19 +1966,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="E52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>3200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1900</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,19 +2030,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>73800</v>
+      <c r="D54" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>68000</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>69000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>63500</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,19 +2092,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="E57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>4600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1991,8 +2122,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2020,19 +2154,22 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15600</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>5100</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>14600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2049,19 +2186,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>20600</v>
+      <c r="D60" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>19200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>9400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2078,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2107,19 +2250,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2700</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2100</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,19 +2378,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23300</v>
+        <v>27700</v>
       </c>
       <c r="E66" s="3">
-        <v>12300</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>21800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>11500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,19 +2552,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15100</v>
+        <v>4900</v>
       </c>
       <c r="E72" s="3">
-        <v>20300</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>18900</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,19 +2680,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>50500</v>
+      <c r="D76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>55700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>47200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>52000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,25 +2744,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,19 +2781,22 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-5200</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-4800</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2660,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,16 +3019,19 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2834,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2876,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,16 +3161,19 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-1300</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>8900</v>
+        <v>7100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2963,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,8 +3335,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3121,13 +3367,16 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>-200</v>
@@ -3150,16 +3399,19 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-1300</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>8300</v>
+        <v>6500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
@@ -3177,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>PUYI</t>
   </si>
@@ -719,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>900</v>
+        <v>14800</v>
       </c>
       <c r="E8" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="F8" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -750,14 +750,14 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>3200</v>
       </c>
       <c r="E9" s="3">
         <v>3200</v>
       </c>
       <c r="F9" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -782,11 +782,11 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>11600</v>
       </c>
       <c r="E10" s="3">
-        <v>12600</v>
+        <v>12500</v>
       </c>
       <c r="F10" s="3">
         <v>9000</v>
@@ -967,14 +967,14 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>21900</v>
       </c>
       <c r="E17" s="3">
-        <v>22300</v>
+        <v>22100</v>
       </c>
       <c r="F17" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -999,8 +999,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-7100</v>
       </c>
       <c r="E18" s="3">
         <v>-6400</v>
@@ -1045,14 +1045,14 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>800</v>
       </c>
       <c r="E20" s="3">
         <v>700</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1141,8 +1141,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-6200</v>
       </c>
       <c r="E23" s="3">
         <v>-5700</v>
@@ -1237,8 +1237,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-5700</v>
       </c>
       <c r="E26" s="3">
         <v>-4800</v>
@@ -1269,8 +1269,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-5700</v>
       </c>
       <c r="E27" s="3">
         <v>-4800</v>
@@ -1429,14 +1429,14 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-800</v>
       </c>
       <c r="E32" s="3">
         <v>-700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1461,8 +1461,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-5700</v>
       </c>
       <c r="E33" s="3">
         <v>-4800</v>
@@ -1525,8 +1525,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-5700</v>
       </c>
       <c r="E35" s="3">
         <v>-4800</v>
@@ -1623,13 +1623,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="E41" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="F41" s="3">
-        <v>48300</v>
+        <v>47800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1687,10 +1687,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="E43" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="F43" s="3">
         <v>7000</v>
@@ -1751,10 +1751,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="E45" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F45" s="3">
         <v>2000</v>
@@ -1782,14 +1782,14 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>57300</v>
       </c>
       <c r="E46" s="3">
-        <v>59400</v>
+        <v>58900</v>
       </c>
       <c r="F46" s="3">
-        <v>57300</v>
+        <v>56800</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1847,13 +1847,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
+        <v>7200</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1975,13 +1975,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
         <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -2038,14 +2038,14 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>68500</v>
       </c>
       <c r="E54" s="3">
-        <v>69000</v>
+        <v>68300</v>
       </c>
       <c r="F54" s="3">
-        <v>63500</v>
+        <v>63000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2105,7 +2105,7 @@
         <v>4600</v>
       </c>
       <c r="F57" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2163,13 +2163,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>18100</v>
       </c>
       <c r="E59" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="F59" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2194,14 +2194,14 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>23300</v>
       </c>
       <c r="E60" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="F60" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2258,11 +2258,11 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4100</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F62" s="3">
         <v>2100</v>
@@ -2387,13 +2387,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="E66" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="F66" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2561,13 +2561,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4900</v>
+        <v>8300</v>
       </c>
       <c r="E72" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="F72" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2688,14 +2688,14 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>41000</v>
       </c>
       <c r="E76" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="F76" s="3">
-        <v>52000</v>
+        <v>51600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2789,8 +2789,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-5700</v>
       </c>
       <c r="E81" s="3">
         <v>-4800</v>
@@ -3027,14 +3027,14 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -3169,14 +3169,14 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-1200</v>
       </c>
       <c r="E94" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>8200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3375,14 +3375,14 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3407,14 +3407,14 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>7600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>PUYI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,22 +714,25 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14800</v>
+        <v>12200</v>
       </c>
       <c r="E8" s="3">
-        <v>15700</v>
+        <v>14100</v>
       </c>
       <c r="F8" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>15000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>11600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -745,22 +749,25 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3200</v>
+        <v>1600</v>
       </c>
       <c r="E9" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F9" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -777,22 +784,25 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>11600</v>
+        <v>10500</v>
       </c>
       <c r="E10" s="3">
-        <v>12500</v>
+        <v>11100</v>
       </c>
       <c r="F10" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8500</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +836,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,22 +988,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21900</v>
+        <v>15700</v>
       </c>
       <c r="E17" s="3">
-        <v>22100</v>
+        <v>20900</v>
       </c>
       <c r="F17" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>21100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>15700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -994,22 +1021,25 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7100</v>
+        <v>-3600</v>
       </c>
       <c r="E18" s="3">
-        <v>-6400</v>
+        <v>-6700</v>
       </c>
       <c r="F18" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-6100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-4100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,23 +1073,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1106,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1141,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,22 +1176,25 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F23" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-5400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-2300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1168,23 +1211,26 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,22 +1281,25 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="E26" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-1900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1264,22 +1316,25 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="E27" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-1900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,23 +1491,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,22 +1526,25 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="E33" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,22 +1596,25 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="E35" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1552,28 +1631,31 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,22 +1703,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31600</v>
+        <v>27000</v>
       </c>
       <c r="E41" s="3">
-        <v>38100</v>
+        <v>30100</v>
       </c>
       <c r="F41" s="3">
-        <v>47800</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>36300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1649,8 +1736,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1658,13 +1748,13 @@
         <v>700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1675,28 +1765,31 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="E43" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>9800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1713,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,22 +1841,25 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14400</v>
+        <v>16500</v>
       </c>
       <c r="E45" s="3">
-        <v>10500</v>
+        <v>13700</v>
       </c>
       <c r="F45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1777,22 +1876,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>57300</v>
+        <v>54900</v>
       </c>
       <c r="E46" s="3">
-        <v>58900</v>
+        <v>54700</v>
       </c>
       <c r="F46" s="3">
-        <v>56800</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>56100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>54100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,22 +1946,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7200</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>6000</v>
+        <v>6900</v>
       </c>
       <c r="F48" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>5800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1873,8 +1981,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1885,11 +1996,11 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,23 +2086,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="F52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,22 +2156,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68500</v>
+        <v>64600</v>
       </c>
       <c r="E54" s="3">
-        <v>68300</v>
+        <v>65300</v>
       </c>
       <c r="F54" s="3">
-        <v>63000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>65100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>60000</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,22 +2223,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="E57" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="F57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2125,8 +2256,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,22 +2291,25 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="E59" s="3">
-        <v>14400</v>
+        <v>17200</v>
       </c>
       <c r="F59" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>13800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2189,8 +2326,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2198,13 +2338,13 @@
         <v>23300</v>
       </c>
       <c r="E60" s="3">
-        <v>19000</v>
+        <v>22300</v>
       </c>
       <c r="F60" s="3">
-        <v>9300</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8900</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,22 +2396,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4100</v>
+        <v>5100</v>
       </c>
       <c r="E62" s="3">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="F62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,22 +2536,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27500</v>
+        <v>28400</v>
       </c>
       <c r="E66" s="3">
-        <v>21600</v>
+        <v>26200</v>
       </c>
       <c r="F66" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,22 +2726,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8300</v>
+        <v>4900</v>
       </c>
       <c r="E72" s="3">
-        <v>14000</v>
+        <v>7900</v>
       </c>
       <c r="F72" s="3">
-        <v>18800</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>13300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>17900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,22 +2866,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41000</v>
+        <v>36200</v>
       </c>
       <c r="E76" s="3">
-        <v>46800</v>
+        <v>39100</v>
       </c>
       <c r="F76" s="3">
-        <v>51600</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>44600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>49200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,28 +2936,31 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,22 +2976,25 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-5700</v>
+        <v>-3000</v>
       </c>
       <c r="E81" s="3">
-        <v>-4800</v>
+        <v>-5500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-1900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3028,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3061,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,23 +3236,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1400</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3271,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3288,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3321,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,22 +3391,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-1200</v>
       </c>
       <c r="F94" s="3">
-        <v>8200</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>7900</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3196,8 +3426,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3581,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3370,23 +3616,26 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,22 +3651,25 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2600</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>7300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3432,6 +3684,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -723,16 +723,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="E8" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="F8" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="G8" s="3">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -758,16 +758,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E9" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F9" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G9" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="E10" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="F10" s="3">
-        <v>11900</v>
+        <v>12300</v>
       </c>
       <c r="G10" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="E17" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="F17" s="3">
-        <v>21100</v>
+        <v>21700</v>
       </c>
       <c r="G17" s="3">
-        <v>15700</v>
+        <v>16200</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1030,16 +1030,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="E18" s="3">
-        <v>-6700</v>
+        <v>-7000</v>
       </c>
       <c r="F18" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="G18" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1080,7 +1080,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
         <v>800</v>
@@ -1185,16 +1185,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F23" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G23" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1220,7 +1220,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>-500</v>
@@ -1290,13 +1290,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E26" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F26" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G26" s="3">
         <v>-1900</v>
@@ -1325,16 +1325,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E27" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F27" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1500,7 +1500,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
         <v>-800</v>
@@ -1535,16 +1535,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E33" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F33" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1605,16 +1605,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E35" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F35" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1710,16 +1710,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27000</v>
+        <v>27900</v>
       </c>
       <c r="E41" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="F41" s="3">
-        <v>36300</v>
+        <v>37400</v>
       </c>
       <c r="G41" s="3">
-        <v>45600</v>
+        <v>47100</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1780,16 +1780,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="E43" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F43" s="3">
         <v>10100</v>
       </c>
-      <c r="F43" s="3">
-        <v>9800</v>
-      </c>
       <c r="G43" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1850,16 +1850,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>13700</v>
+        <v>14200</v>
       </c>
       <c r="F45" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1885,16 +1885,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>54900</v>
+        <v>56700</v>
       </c>
       <c r="E46" s="3">
-        <v>54700</v>
+        <v>56400</v>
       </c>
       <c r="F46" s="3">
-        <v>56100</v>
+        <v>57900</v>
       </c>
       <c r="G46" s="3">
-        <v>54100</v>
+        <v>55800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1955,16 +1955,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E48" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G48" s="3">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -2095,13 +2095,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="F52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G52" s="3">
         <v>1800</v>
@@ -2165,16 +2165,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64600</v>
+        <v>66600</v>
       </c>
       <c r="E54" s="3">
-        <v>65300</v>
+        <v>67400</v>
       </c>
       <c r="F54" s="3">
-        <v>65100</v>
+        <v>67200</v>
       </c>
       <c r="G54" s="3">
-        <v>60000</v>
+        <v>61900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2230,16 +2230,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="E57" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="F57" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G57" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2300,16 +2300,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="E59" s="3">
-        <v>17200</v>
+        <v>17800</v>
       </c>
       <c r="F59" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="G59" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2335,16 +2335,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="E60" s="3">
-        <v>22300</v>
+        <v>23000</v>
       </c>
       <c r="F60" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="G60" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2405,16 +2405,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E62" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F62" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G62" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2545,16 +2545,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28400</v>
+        <v>29300</v>
       </c>
       <c r="E66" s="3">
-        <v>26200</v>
+        <v>27000</v>
       </c>
       <c r="F66" s="3">
-        <v>20500</v>
+        <v>21200</v>
       </c>
       <c r="G66" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2735,16 +2735,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E72" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="F72" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="G72" s="3">
-        <v>17900</v>
+        <v>18500</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2875,16 +2875,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="E76" s="3">
-        <v>39100</v>
+        <v>40300</v>
       </c>
       <c r="F76" s="3">
-        <v>44600</v>
+        <v>46000</v>
       </c>
       <c r="G76" s="3">
-        <v>49200</v>
+        <v>50700</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2985,16 +2985,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="E81" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="F81" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -3409,7 +3409,7 @@
         <v>-1200</v>
       </c>
       <c r="G94" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3663,13 +3663,13 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="F102" s="3">
         <v>-1200</v>
       </c>
       <c r="G102" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
   <si>
     <t>PUYI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,25 +718,28 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>12500</v>
+        <v>9700</v>
       </c>
       <c r="E8" s="3">
-        <v>14600</v>
+        <v>12400</v>
       </c>
       <c r="F8" s="3">
-        <v>15500</v>
+        <v>14400</v>
       </c>
       <c r="G8" s="3">
-        <v>12000</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>15300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -752,25 +756,28 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700</v>
       </c>
-      <c r="E9" s="3">
-        <v>3200</v>
-      </c>
       <c r="F9" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G9" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>3100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -787,25 +794,28 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>10800</v>
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="F10" s="3">
-        <v>12300</v>
+        <v>11300</v>
       </c>
       <c r="G10" s="3">
-        <v>8800</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8700</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,8 +850,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,25 +1015,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16200</v>
+        <v>15200</v>
       </c>
       <c r="E17" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>21300</v>
+      </c>
+      <c r="G17" s="3">
         <v>21500</v>
       </c>
-      <c r="F17" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16200</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="H17" s="3">
+        <v>16100</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1024,26 +1051,29 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-3700</v>
+        <v>-5400</v>
       </c>
       <c r="E18" s="3">
-        <v>-7000</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6300</v>
+        <v>-6900</v>
       </c>
       <c r="G18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4200</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,26 +1107,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,13 +1143,16 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-4400</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1179,26 +1219,29 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1214,26 +1257,29 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,26 +1333,29 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-3100</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G26" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,25 +1371,28 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-3100</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-1900</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,26 +1561,29 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,25 +1599,28 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-3100</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-1900</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,25 +1675,28 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-3100</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-1900</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1634,31 +1713,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,25 +1790,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>27900</v>
+        <v>10700</v>
       </c>
       <c r="E41" s="3">
-        <v>31000</v>
+        <v>27600</v>
       </c>
       <c r="F41" s="3">
-        <v>37400</v>
+        <v>30700</v>
       </c>
       <c r="G41" s="3">
-        <v>47100</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>37000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>46600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1739,25 +1826,28 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>700</v>
+      <c r="D42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1768,32 +1858,35 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11000</v>
+        <v>24700</v>
       </c>
       <c r="E43" s="3">
-        <v>10400</v>
+        <v>10900</v>
       </c>
       <c r="F43" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="G43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="3">
         <v>6800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,25 +1940,28 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>2300</v>
       </c>
       <c r="E45" s="3">
-        <v>14200</v>
+        <v>16900</v>
       </c>
       <c r="F45" s="3">
-        <v>10400</v>
+        <v>14000</v>
       </c>
       <c r="G45" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>10300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1879,25 +1978,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>56700</v>
+        <v>37800</v>
       </c>
       <c r="E46" s="3">
-        <v>56400</v>
+        <v>56100</v>
       </c>
       <c r="F46" s="3">
-        <v>57900</v>
+        <v>55800</v>
       </c>
       <c r="G46" s="3">
-        <v>55800</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>57300</v>
+      </c>
+      <c r="H46" s="3">
+        <v>55300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,25 +2054,28 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>4300</v>
       </c>
       <c r="E48" s="3">
-        <v>7100</v>
+        <v>6200</v>
       </c>
       <c r="F48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G48" s="3">
         <v>5900</v>
       </c>
-      <c r="G48" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>3900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1984,13 +2092,16 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
@@ -1999,11 +2110,11 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,26 +2206,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3500</v>
       </c>
-      <c r="E52" s="3">
-        <v>3700</v>
-      </c>
       <c r="F52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,25 +2282,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66600</v>
+        <v>46100</v>
       </c>
       <c r="E54" s="3">
-        <v>67400</v>
+        <v>65900</v>
       </c>
       <c r="F54" s="3">
-        <v>67200</v>
+        <v>66700</v>
       </c>
       <c r="G54" s="3">
-        <v>61900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>66500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>61300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,25 +2354,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>4500</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>5200</v>
+        <v>4400</v>
       </c>
       <c r="F57" s="3">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+      <c r="H57" s="3">
+        <v>4400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2294,25 +2428,28 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>19500</v>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>17800</v>
+        <v>19300</v>
       </c>
       <c r="F59" s="3">
-        <v>14200</v>
+        <v>17600</v>
       </c>
       <c r="G59" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>14100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2329,25 +2466,28 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>24000</v>
+        <v>9100</v>
       </c>
       <c r="E60" s="3">
-        <v>23000</v>
+        <v>23800</v>
       </c>
       <c r="F60" s="3">
-        <v>18700</v>
+        <v>22700</v>
       </c>
       <c r="G60" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>18500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>9000</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2364,8 +2504,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2399,25 +2542,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>5300</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>4100</v>
+        <v>5200</v>
       </c>
       <c r="F62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="G62" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>2000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,25 +2694,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29300</v>
+        <v>13600</v>
       </c>
       <c r="E66" s="3">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="F66" s="3">
-        <v>21200</v>
+        <v>26800</v>
       </c>
       <c r="G66" s="3">
-        <v>11200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>21000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>11100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,25 +2900,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E72" s="3">
         <v>5000</v>
       </c>
-      <c r="E72" s="3">
-        <v>8100</v>
-      </c>
       <c r="F72" s="3">
-        <v>13800</v>
+        <v>8000</v>
       </c>
       <c r="G72" s="3">
-        <v>18500</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>13600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>18300</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,25 +3052,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37300</v>
+        <v>32500</v>
       </c>
       <c r="E76" s="3">
-        <v>40300</v>
+        <v>37000</v>
       </c>
       <c r="F76" s="3">
-        <v>46000</v>
+        <v>39900</v>
       </c>
       <c r="G76" s="3">
-        <v>50700</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>45500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>50200</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,31 +3128,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,25 +3171,28 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-3100</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-4700</v>
-      </c>
       <c r="G81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-4600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-1900</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,31 +3227,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3064,8 +3263,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,26 +3453,29 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-17800</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3274,8 +3491,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3324,8 +3545,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,25 +3621,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1200</v>
       </c>
       <c r="F94" s="3">
         <v>-1200</v>
       </c>
       <c r="G94" s="3">
-        <v>8100</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-1200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>8000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3429,8 +3659,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3619,26 +3865,29 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3654,25 +3903,28 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
-        <v>-2600</v>
-      </c>
       <c r="F102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="H102" s="3">
+        <v>7400</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3687,6 +3939,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="92">
   <si>
     <t>PUYI</t>
   </si>
@@ -727,19 +727,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E8" s="3">
-        <v>12400</v>
+        <v>12000</v>
       </c>
       <c r="F8" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="G8" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="H8" s="3">
-        <v>11900</v>
+        <v>11500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E9" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F9" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G9" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H9" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -803,19 +803,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="E10" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="F10" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="G10" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="H10" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -1022,19 +1022,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="E17" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="F17" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="G17" s="3">
-        <v>21500</v>
+        <v>20900</v>
       </c>
       <c r="H17" s="3">
-        <v>16100</v>
+        <v>15600</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1060,19 +1060,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F18" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G18" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="H18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1117,7 +1117,7 @@
         <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F20" s="3">
         <v>800</v>
@@ -1126,7 +1126,7 @@
         <v>700</v>
       </c>
       <c r="H20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1152,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1228,19 +1228,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="F23" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="G23" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1269,7 +1269,7 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>-500</v>
@@ -1341,20 +1341,20 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-4300</v>
       </c>
       <c r="E26" s="3">
         <v>-3000</v>
       </c>
       <c r="F26" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G26" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1379,17 +1379,17 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-4300</v>
       </c>
       <c r="E27" s="3">
         <v>-3000</v>
       </c>
       <c r="F27" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G27" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H27" s="3">
         <v>-1900</v>
@@ -1573,7 +1573,7 @@
         <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="F32" s="3">
         <v>-800</v>
@@ -1582,7 +1582,7 @@
         <v>-700</v>
       </c>
       <c r="H32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1607,17 +1607,17 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-4300</v>
       </c>
       <c r="E33" s="3">
         <v>-3000</v>
       </c>
       <c r="F33" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G33" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H33" s="3">
         <v>-1900</v>
@@ -1683,17 +1683,17 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-4300</v>
       </c>
       <c r="E35" s="3">
         <v>-3000</v>
       </c>
       <c r="F35" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G35" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H35" s="3">
         <v>-1900</v>
@@ -1797,19 +1797,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="E41" s="3">
-        <v>27600</v>
+        <v>26800</v>
       </c>
       <c r="F41" s="3">
-        <v>30700</v>
+        <v>29800</v>
       </c>
       <c r="G41" s="3">
-        <v>37000</v>
+        <v>35900</v>
       </c>
       <c r="H41" s="3">
-        <v>46600</v>
+        <v>45100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1873,19 +1873,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24700</v>
+        <v>24000</v>
       </c>
       <c r="E43" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="F43" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="G43" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="H43" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1952,13 +1952,13 @@
         <v>2300</v>
       </c>
       <c r="E45" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="F45" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="G45" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1987,19 +1987,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>37800</v>
+        <v>36600</v>
       </c>
       <c r="E46" s="3">
-        <v>56100</v>
+        <v>54400</v>
       </c>
       <c r="F46" s="3">
-        <v>55800</v>
+        <v>54100</v>
       </c>
       <c r="G46" s="3">
-        <v>57300</v>
+        <v>55600</v>
       </c>
       <c r="H46" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2063,19 +2063,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="E48" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F48" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H48" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2215,19 +2215,19 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F52" s="3">
         <v>3500</v>
       </c>
-      <c r="F52" s="3">
-        <v>3600</v>
-      </c>
       <c r="G52" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2291,19 +2291,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="E54" s="3">
-        <v>65900</v>
+        <v>63900</v>
       </c>
       <c r="F54" s="3">
-        <v>66700</v>
+        <v>64600</v>
       </c>
       <c r="G54" s="3">
-        <v>66500</v>
+        <v>64500</v>
       </c>
       <c r="H54" s="3">
-        <v>61300</v>
+        <v>59400</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2360,20 +2360,20 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F57" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="G57" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H57" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2436,20 +2436,20 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>3700</v>
       </c>
       <c r="E59" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="F59" s="3">
-        <v>17600</v>
+        <v>17100</v>
       </c>
       <c r="G59" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="H59" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2475,19 +2475,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9100</v>
+        <v>8900</v>
       </c>
       <c r="E60" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="F60" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="G60" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="H60" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2550,17 +2550,17 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>4300</v>
       </c>
       <c r="E62" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G62" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H62" s="3">
         <v>2000</v>
@@ -2703,19 +2703,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13600</v>
+        <v>13100</v>
       </c>
       <c r="E66" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="F66" s="3">
-        <v>26800</v>
+        <v>25900</v>
       </c>
       <c r="G66" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="H66" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2909,19 +2909,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6100</v>
+        <v>500</v>
       </c>
       <c r="E72" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="F72" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="G72" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="H72" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3061,19 +3061,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32500</v>
+        <v>31500</v>
       </c>
       <c r="E76" s="3">
-        <v>37000</v>
+        <v>35800</v>
       </c>
       <c r="F76" s="3">
-        <v>39900</v>
+        <v>38700</v>
       </c>
       <c r="G76" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="H76" s="3">
-        <v>50200</v>
+        <v>48700</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3179,17 +3179,17 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-4300</v>
       </c>
       <c r="E81" s="3">
         <v>-3000</v>
       </c>
       <c r="F81" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G81" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H81" s="3">
         <v>-1900</v>
@@ -3462,7 +3462,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17800</v>
+        <v>-17300</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3629,8 +3629,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-13300</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
@@ -3642,7 +3642,7 @@
         <v>-1200</v>
       </c>
       <c r="H94" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3873,8 +3873,8 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -3911,8 +3911,8 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-30500</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
@@ -3924,7 +3924,7 @@
         <v>-1200</v>
       </c>
       <c r="H102" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PUYI_QTR_FIN.xlsx
@@ -730,13 +730,13 @@
         <v>9400</v>
       </c>
       <c r="E8" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="F8" s="3">
         <v>14000</v>
       </c>
       <c r="G8" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="H8" s="3">
         <v>11500</v>
@@ -777,7 +777,7 @@
         <v>3000</v>
       </c>
       <c r="H9" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>10400</v>
       </c>
       <c r="F10" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="3">
         <v>11800</v>
@@ -1803,13 +1803,13 @@
         <v>26800</v>
       </c>
       <c r="F41" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="G41" s="3">
-        <v>35900</v>
+        <v>36000</v>
       </c>
       <c r="H41" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1958,7 +1958,7 @@
         <v>13600</v>
       </c>
       <c r="G45" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="H45" s="3">
         <v>1900</v>
@@ -1987,19 +1987,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36600</v>
+        <v>36700</v>
       </c>
       <c r="E46" s="3">
-        <v>54400</v>
+        <v>54500</v>
       </c>
       <c r="F46" s="3">
-        <v>54100</v>
+        <v>54200</v>
       </c>
       <c r="G46" s="3">
-        <v>55600</v>
+        <v>55700</v>
       </c>
       <c r="H46" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2291,19 +2291,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="E54" s="3">
-        <v>63900</v>
+        <v>64100</v>
       </c>
       <c r="F54" s="3">
+        <v>64800</v>
+      </c>
+      <c r="G54" s="3">
         <v>64600</v>
       </c>
-      <c r="G54" s="3">
-        <v>64500</v>
-      </c>
       <c r="H54" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2440,13 +2440,13 @@
         <v>3700</v>
       </c>
       <c r="E59" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="F59" s="3">
         <v>17100</v>
       </c>
       <c r="G59" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="H59" s="3">
         <v>4500</v>
@@ -2478,10 +2478,10 @@
         <v>8900</v>
       </c>
       <c r="E60" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="F60" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="G60" s="3">
         <v>18000</v>
@@ -2703,19 +2703,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E66" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="F66" s="3">
-        <v>25900</v>
+        <v>26000</v>
       </c>
       <c r="G66" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="H66" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2912,7 +2912,7 @@
         <v>500</v>
       </c>
       <c r="E72" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="F72" s="3">
         <v>7800</v>
@@ -3061,19 +3061,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="E76" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F76" s="3">
-        <v>38700</v>
+        <v>38800</v>
       </c>
       <c r="G76" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="H76" s="3">
-        <v>48700</v>
+        <v>48800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3912,7 +3912,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-30500</v>
+        <v>-30600</v>
       </c>
       <c r="E102" s="3">
         <v>-300</v>
